--- a/Document/Tasks/Task Assignment.xlsx
+++ b/Document/Tasks/Task Assignment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Dương Nam Phương</t>
   </si>
@@ -63,12 +63,6 @@
     <t>Manage Trip( Create, Modify, Delete)</t>
   </si>
   <si>
-    <t>Manage Route (Create, Delete)</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
     <t>Book ticket</t>
   </si>
   <si>
@@ -81,24 +75,39 @@
     <t>Note</t>
   </si>
   <si>
+    <t xml:space="preserve">- Coding: Manage trip </t>
+  </si>
+  <si>
+    <t>- Coding: Book ticket</t>
+  </si>
+  <si>
+    <t>Manage Station( Search, Create, Delete, Update)</t>
+  </si>
+  <si>
+    <t>Manage Route (Create, Delete, Search)</t>
+  </si>
+  <si>
+    <t>Search for Booking</t>
+  </si>
+  <si>
+    <t>-  Coding: Manage route</t>
+  </si>
+  <si>
+    <t>-  Coding: Login/Logout</t>
+  </si>
+  <si>
+    <t>- Create Document
+- Coding: Search for Booking
+- Summarize and Edit</t>
+  </si>
+  <si>
     <t>- Set up environment
-- Coding: Manage trip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Coding: Manage trip </t>
-  </si>
-  <si>
-    <t>- Coding: Login/Logout</t>
-  </si>
-  <si>
-    <t>- Coding: Manage route</t>
-  </si>
-  <si>
-    <t>- Create Document
-- Coding: Search</t>
-  </si>
-  <si>
-    <t>- Coding: Book ticket</t>
+- Coding: Manage trip
+- Summarize and Edit
+- Email to confirm</t>
+  </si>
+  <si>
+    <t>Email to confirm</t>
   </si>
 </sst>
 </file>
@@ -171,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -204,18 +213,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,41 +527,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.25" customWidth="1"/>
     <col min="4" max="4" width="22.25" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -563,7 +573,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -573,7 +583,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -583,7 +593,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -592,155 +602,158 @@
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="7" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="D18" s="8"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>3</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>4</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <v>5</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+    <row r="21" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>5</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>6</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -752,7 +765,6 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
@@ -762,11 +774,23 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Document/Tasks/Task Assignment.xlsx
+++ b/Document/Tasks/Task Assignment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -113,12 +113,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -126,7 +126,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -134,7 +134,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -216,6 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -225,7 +226,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -315,7 +315,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -350,7 +349,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,42 +524,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="44.25" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+    <row r="2" spans="1:4">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -573,7 +571,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -583,7 +581,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -593,7 +591,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -602,64 +600,64 @@
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+    <row r="8" spans="1:4">
+      <c r="A8" s="15">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
+    <row r="13" spans="1:4">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
+    <row r="14" spans="1:4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
@@ -673,7 +671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="58.5" customHeight="1">
       <c r="A17" s="8">
         <v>1</v>
       </c>
@@ -686,7 +684,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="8">
         <v>2</v>
       </c>
@@ -699,33 +697,33 @@
       <c r="D18" s="8"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="6">
         <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="10">
         <v>4</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="43.5" customHeight="1">
       <c r="A21" s="10">
         <v>5</v>
       </c>
@@ -738,7 +736,7 @@
       <c r="D21" s="11"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="10">
         <v>6</v>
       </c>
@@ -751,36 +749,36 @@
       <c r="D22" s="11"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -798,24 +796,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/Tasks/Task Assignment.xlsx
+++ b/Document/Tasks/Task Assignment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -113,12 +113,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -126,7 +126,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -134,7 +134,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -315,6 +315,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -349,6 +350,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,23 +526,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.25" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
@@ -548,18 +550,18 @@
       <c r="C1" s="14"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -571,7 +573,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -581,7 +583,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -591,7 +593,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -600,7 +602,7 @@
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -611,53 +613,53 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
@@ -671,7 +673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="58.5" customHeight="1">
+    <row r="17" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>1</v>
       </c>
@@ -684,7 +686,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>2</v>
       </c>
@@ -697,7 +699,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>3</v>
       </c>
@@ -710,7 +712,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>4</v>
       </c>
@@ -723,7 +725,7 @@
       <c r="D20" s="11"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="43.5" customHeight="1">
+    <row r="21" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>5</v>
       </c>
@@ -736,7 +738,7 @@
       <c r="D21" s="11"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>6</v>
       </c>
@@ -749,36 +751,36 @@
       <c r="D22" s="11"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -796,24 +798,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/Tasks/Task Assignment.xlsx
+++ b/Document/Tasks/Task Assignment.xlsx
@@ -75,9 +75,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t xml:space="preserve">- Coding: Manage trip </t>
-  </si>
-  <si>
     <t>- Coding: Book ticket</t>
   </si>
   <si>
@@ -90,24 +87,30 @@
     <t>Search for Booking</t>
   </si>
   <si>
-    <t>-  Coding: Manage route</t>
-  </si>
-  <si>
     <t>-  Coding: Login/Logout</t>
+  </si>
+  <si>
+    <t>Email to confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Set up environment
+- Coding: Manage trip
+- Summarize and Edit
+</t>
   </si>
   <si>
     <t>- Create Document
 - Coding: Search for Booking
-- Summarize and Edit</t>
-  </si>
-  <si>
-    <t>- Set up environment
-- Coding: Manage trip
 - Summarize and Edit
 - Email to confirm</t>
   </si>
   <si>
-    <t>Email to confirm</t>
+    <t>-  Coding: Manage route
+- Coding: Manage station</t>
+  </si>
+  <si>
+    <t>- Coding: Manage trip
+- Coding: Create presentation</t>
   </si>
 </sst>
 </file>
@@ -180,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -217,6 +220,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -543,17 +549,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -603,10 +609,10 @@
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+      <c r="A8" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -614,43 +620,43 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
@@ -673,28 +679,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>1</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>19</v>
+      <c r="C18" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="1"/>
@@ -707,25 +713,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>4</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>24</v>
+      <c r="C20" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>5</v>
       </c>
@@ -746,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="1"/>
